--- a/052319_Tibetan_Blood_Gas_4200.xlsx
+++ b/052319_Tibetan_Blood_Gas_4200.xlsx
@@ -636,11 +636,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -658,7 +658,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,6 +731,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -687,31 +747,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,17 +771,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,9 +785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,39 +800,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,43 +816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,61 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +906,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,31 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,54 +1007,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1078,7 +1029,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,6 +1065,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,161 +1110,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,6 +1327,2000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>APH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4200'!$U$2:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4200'!$X$2:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="35369071"/>
+        <c:axId val="527213092"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35369071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527213092"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527213092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35369071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>BPH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4200'!$V$2:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4200'!$Y$2:$Y$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="278344815"/>
+        <c:axId val="906214438"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="278344815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906214438"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="906214438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278344815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14192250" y="2863215"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14192250" y="130175"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,12 +3581,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W207"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomLeft" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1608,7 +3604,7 @@
     <col min="19" max="20" width="5.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1678,8 +3674,11 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1750,8 +3749,11 @@
       <c r="W2">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +3824,11 @@
       <c r="W3">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1894,8 +3899,11 @@
       <c r="W4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1966,8 +3974,11 @@
       <c r="W5">
         <v>-7.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -2038,8 +4049,11 @@
       <c r="W6">
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2110,8 +4124,11 @@
       <c r="W7">
         <v>-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -2182,8 +4199,11 @@
       <c r="W8">
         <v>-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -2254,8 +4274,11 @@
       <c r="W9">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2326,8 +4349,11 @@
       <c r="W10">
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +4424,11 @@
       <c r="W11">
         <v>-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2470,8 +4499,11 @@
       <c r="W12">
         <v>-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2542,8 +4574,11 @@
       <c r="W13">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -2614,8 +4649,11 @@
       <c r="W14">
         <v>-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2686,8 +4724,11 @@
       <c r="W15">
         <v>-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -2758,8 +4799,11 @@
       <c r="W16">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -2830,8 +4874,11 @@
       <c r="W17">
         <v>-8.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -2902,8 +4949,11 @@
       <c r="W18">
         <v>-11</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -2974,8 +5024,11 @@
       <c r="W19">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -3046,8 +5099,11 @@
       <c r="W20">
         <v>-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -3118,8 +5174,11 @@
       <c r="W21">
         <v>-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3190,8 +5249,11 @@
       <c r="W22">
         <v>-10</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -3262,8 +5324,11 @@
       <c r="W23">
         <v>-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
@@ -3334,8 +5399,11 @@
       <c r="W24">
         <v>-7</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
@@ -3406,8 +5474,11 @@
       <c r="W25">
         <v>-7.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -3478,8 +5549,11 @@
       <c r="W26">
         <v>-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -3550,8 +5624,11 @@
       <c r="W27">
         <v>-5.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -3622,8 +5699,11 @@
       <c r="W28">
         <v>-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
@@ -3694,8 +5774,11 @@
       <c r="W29">
         <v>-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
@@ -3766,8 +5849,11 @@
       <c r="W30">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="3" t="s">
         <v>83</v>
       </c>
@@ -3838,8 +5924,11 @@
       <c r="W31">
         <v>-5.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
@@ -3910,8 +5999,11 @@
       <c r="W32">
         <v>-8</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
@@ -3974,16 +6066,19 @@
         <v>16.3792</v>
       </c>
       <c r="U33">
-        <v>7.34</v>
+        <v>7.42</v>
       </c>
       <c r="V33">
-        <v>7.17</v>
+        <v>7.24</v>
       </c>
       <c r="W33">
-        <v>-8.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>-4.2</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="3" t="s">
         <v>89</v>
       </c>
@@ -4046,16 +6141,19 @@
         <v>15.265428</v>
       </c>
       <c r="U34">
-        <v>7.42</v>
+        <v>7.34</v>
       </c>
       <c r="V34">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="W34">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>-8.5</v>
+      </c>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -4126,6 +6224,9 @@
       <c r="W35">
         <v>-11.7</v>
       </c>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="3" t="s">
@@ -11761,5 +13862,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>